--- a/excel/write-excel/old.xlsx
+++ b/excel/write-excel/old.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AA92D6-2681-4ADE-B934-E4F0F8D85A58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Sheet2" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Sheet3" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -29,30 +24,23 @@
     <t>hoten</t>
   </si>
   <si>
+    <t>ngaysinh</t>
+  </si>
+  <si>
     <t>tuoi</t>
   </si>
-  <si>
-    <t>ngaysinh</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FF7030A0"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -118,12 +106,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,30 +390,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -435,14 +430,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D937C6E-FFBC-462A-A2BD-19D65BA803D4}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -452,10 +447,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>2</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
 </file>
--- a/excel/write-excel/old.xlsx
+++ b/excel/write-excel/old.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Sheet2" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Sheet3" state="visible" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -33,14 +33,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -171,7 +171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -206,7 +206,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -383,7 +383,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -391,13 +391,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
@@ -416,12 +416,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -433,11 +473,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -450,7 +490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -465,13 +505,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/excel/write-excel/old.xlsx
+++ b/excel/write-excel/old.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A8" sqref="A8:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/excel/write-excel/old.xlsx
+++ b/excel/write-excel/old.xlsx
@@ -383,7 +383,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,6 +464,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel/write-excel/old.xlsx
+++ b/excel/write-excel/old.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Sheet2" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Sheet3" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -33,14 +33,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -393,11 +393,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
@@ -449,22 +449,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -478,11 +478,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -495,7 +495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -510,13 +510,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>